--- a/doc/CalidadYPruebas/190822 getty colombia plan de pruebas factura electronica.xlsx
+++ b/doc/CalidadYPruebas/190822 getty colombia plan de pruebas factura electronica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jcTii\Desarrollo\COL_FacturaElectronica\co02\doc\CalidadYPruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorio local\co02\doc\CalidadYPruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130727ED-738E-4081-A335-001324FF1559}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E3C08-B813-4909-878A-5E23493EF845}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2895" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facturaelectronica" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Factura  Electrónica Colombia</t>
   </si>
@@ -183,6 +183,9 @@
     <t xml:space="preserve">Transacciones/Ventas/Entrada de transacción de ventas
 Seleccionar el cliente Lowe
 Emitir factura con la Aplicación de emisión de factura electrónica  </t>
+  </si>
+  <si>
+    <t>&gt;</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -664,11 +667,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
@@ -772,8 +775,8 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
+      <c r="A7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
